--- a/Question_Set2/Software skills/Oracle DBMS.xlsx
+++ b/Question_Set2/Software skills/Oracle DBMS.xlsx
@@ -16,23 +16,60 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>questions = [{'title': 'You are configuring a database in a test environment. You are using Automatic Shared Memory Management (ASMM). The memory allocated for System Global Area (SGA) and Program Global Area (PGA) is 50% of the main memory. While trying to start up the database instance in the nomount stage, you get the error shown in the below code block. What should you do to resolve the issue? ORA-27102: out of memory\nLinux-x86_64 Error: 28: No space left on device.', 'ques_type': 2, 'options': ['Clear PageCache and inodes to free up Linux cache memory.', 'Increase the nproc value at /etc/security/limits.conf file.', 'Adjust the size of /dev/shm to a suitable value.', 'Adjust the values of SHMMAX and SHMALL in the sysctl.conf file and run sysctl with -p parameter to load in sysctl settings.'], 'score': 'Adjust the values of SHMMAX and SHMALL in the sysctl.conf file and run sysctl with -p parameter to load in sysctl settings.'}, {'title': 'You want to relocate the datafiles of the XYZ_TBS tablespace to a different location. You have a current backup of the database. You took the tablespace XYZ_TBS offline and moved the data files to their new locations. The tablespace failed when you attempted to bring it online. What is the most likely cause of the failure?', 'ques_type': 2, 'options': ['The data files were corrupted while relocating.', 'The location of the data files needs to be updated in the control file.', 'The TEMP tablespace has been filled.', 'The database needs to be shut down and recovery needs to be performed in mount mode.'], 'score': 'The location of the data files needs to be updated in the control file.'}, {'title': 'You have joined a company that runs a Recovery Manager (RMAN) backup in an incremental strategy with a retention period of five days. You have taken level 0 backups weekly on October 11, 18, and 25. Level 1 incremental backups are taken daily between those level 0 backups. On 28th October, you run the command in the below code snippet, from RMAN Which backups will be marked as obsolete?  RMAN&amp;gt REPORT OBSOLETE', 'ques_type': 2, 'options': ['Backups before October 23', 'Backups on and before October 25', 'Backups on and before October 23', 'Backups before October 25'], 'score': 'Backups before October 25'}, {'title': 'Your database allows a maximum of three login attempts. Once an employee crosses the maximum limit, their account gets locked for one day. During an emergency, you have to retrieve an employee’s database user, which was locked an hour prior. What should you do to unlock the account immediately?', 'ques_type': 2, 'options': ['Set PASSWORD_LOCK_TIME to zero (0).', 'Alter the database user with the Open User command.', 'Set PASSWORD_REUSE_TIME to One (1).', 'Alter the database user with the Unlock User command.'], 'score': 'Alter the database user with the Unlock User command.'}]</t>
+    <t>questions = [
+    {
+        "title": "You are configuring a database in a test environment. You are using Automatic Shared Memory Management (ASMM). The memory allocated for System Global Area (SGA) and Program Global Area (PGA) is 50% of the main memory. While trying to start up the database instance in the nomount stage, you get the error shown in the below code block. What should you do to resolve the issue? ORA-27102: out of memory\nLinux-x86_64 Error: 28: No space left on device.",
+        "ques_type": 2,
+        "options": [
+            "Clear PageCache and inodes to free up Linux cache memory.",
+            "Increase the nproc value at /etc/security/limits.conf file.",
+            "Adjust the size of /dev/shm to a suitable value.",
+            "Adjust the values of SHMMAX and SHMALL in the sysctl.conf file and run sysctl with -p parameter to load in sysctl settings."
+        ],
+        "score": "Adjust the values of SHMMAX and SHMALL in the sysctl.conf file and run sysctl with -p parameter to load in sysctl settings."
+    },
+    {
+        "title": "You want to relocate the datafiles of the XYZ_TBS tablespace to a different location. You have a current backup of the database. You took the tablespace XYZ_TBS offline and moved the data files to their new locations. The tablespace failed when you attempted to bring it online. What is the most likely cause of the failure?",
+        "ques_type": 2,
+        "options": [
+            "The data files were corrupted while relocating.",
+            "The location of the data files needs to be updated in the control file.",
+            "The TEMP tablespace has been filled.",
+            "The database needs to be shut down and recovery needs to be performed in mount mode."
+        ],
+        "score": "The location of the data files needs to be updated in the control file."
+    },
+    {
+        "title": "You have joined a company that runs a Recovery Manager (RMAN) backup in an incremental strategy with a retention period of five days. You have taken level 0 backups weekly on October 11, 18, and 25. Level 1 incremental backups are taken daily between those level 0 backups. On 28th October, you run the command in the below code snippet, from RMAN Which backups will be marked as obsolete?  RMAN&amp;gt REPORT OBSOLETE",
+        "ques_type": 2,
+        "options": [
+            "Backups before October 23",
+            "Backups on and before October 25",
+            "Backups on and before October 23",
+            "Backups before October 25"
+        ],
+        "score": "Backups before October 25"
+    },
+    {
+        "title": "Your database allows a maximum of three login attempts. Once an employee crosses the maximum limit, their account gets locked for one day. During an emergency, you have to retrieve an employee\u2019s database user, which was locked an hour prior. What should you do to unlock the account immediately?",
+        "ques_type": 2,
+        "options": [
+            "Set PASSWORD_LOCK_TIME to zero (0).",
+            "Alter the database user with the Open User command.",
+            "Set PASSWORD_REUSE_TIME to One (1).",
+            "Alter the database user with the Unlock User command."
+        ],
+        "score": "Alter the database user with the Unlock User command."
+    }
+]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -48,7 +85,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -56,30 +93,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,19 +393,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
